--- a/fic_meter_files/fict_meter_master.xlsx
+++ b/fic_meter_files/fict_meter_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\Python Projects\wrldc_metering_warehouse\fic_meter_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DB6C7-CB97-4684-84F0-7DF39CCD6659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F742439-D09D-455D-B779-11604EEBE83C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,7 +1405,7 @@
     <t>VIRTUAL ENTITY WR.</t>
   </si>
   <si>
-    <t>from_date</t>
+    <t>from_time</t>
   </si>
 </sst>
 </file>
@@ -1815,9 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1828,7 +1826,7 @@
     <col min="5" max="5" width="181.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
